--- a/lab4.xlsx
+++ b/lab4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA75B6B-1B8B-4ADF-BAF5-918273F9A192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B02DB9-4EB8-4008-A145-7B6CEC2DB93D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,9 +661,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>З1!$A$10:$A$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>З1!$A$10:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(З1!$A$10:$A$13,З1!$A$15)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Буратино</c:v>
                 </c:pt>
@@ -677,9 +684,6 @@
                   <c:v>Дуремар</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Всего</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Калории</c:v>
                 </c:pt>
               </c:strCache>
@@ -687,10 +691,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>З1!$B$10:$B$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>З1!$B$10:$B$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(З1!$B$10:$B$13,З1!$B$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -704,9 +715,6 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -744,9 +752,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>З1!$A$10:$A$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>З1!$A$10:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(З1!$A$10:$A$13,З1!$A$15)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Буратино</c:v>
                 </c:pt>
@@ -760,9 +775,6 @@
                   <c:v>Дуремар</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Всего</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Калории</c:v>
                 </c:pt>
               </c:strCache>
@@ -770,10 +782,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>З1!$C$10:$C$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>З1!$C$10:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(З1!$C$10:$C$13,З1!$C$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -787,9 +806,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1500</c:v>
                 </c:pt>
               </c:numCache>
@@ -827,9 +843,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>З1!$A$10:$A$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>З1!$A$10:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(З1!$A$10:$A$13,З1!$A$15)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Буратино</c:v>
                 </c:pt>
@@ -843,9 +866,6 @@
                   <c:v>Дуремар</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Всего</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Калории</c:v>
                 </c:pt>
               </c:strCache>
@@ -853,10 +873,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>З1!$D$10:$D$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>З1!$D$10:$D$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(З1!$D$10:$D$13,З1!$D$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -870,9 +897,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
@@ -912,9 +936,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>З1!$A$10:$A$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>З1!$A$10:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(З1!$A$10:$A$13,З1!$A$15)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Буратино</c:v>
                 </c:pt>
@@ -928,9 +959,6 @@
                   <c:v>Дуремар</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Всего</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Калории</c:v>
                 </c:pt>
               </c:strCache>
@@ -938,10 +966,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>З1!$E$10:$E$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>З1!$E$10:$E$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(З1!$E$10:$E$13,З1!$E$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>715</c:v>
                 </c:pt>
@@ -955,9 +990,6 @@
                   <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1694</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1694</c:v>
                 </c:pt>
               </c:numCache>
@@ -1268,143 +1300,78 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>З2!$B$6</c:f>
+              <c:f>З2!$A$7:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Сканер</c:v>
+                  <c:v>Мальвина</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Буратино</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Пьеро</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Лиса Алиса </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="66000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="44500"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="23500"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="2700000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="66FF99"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="66FFFF"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="66000"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="44500"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="23500"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF33CC"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>З2!$A$7:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>З2!$A$7:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
@@ -1425,338 +1392,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>З2!$B$7:$B$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>З2!$B$7:$B$10</c:f>
+              <c:f>З2!$E$7:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions/>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-495A-4032-B25C-0D4B7D5CFD7E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>З2!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Принтер</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>З2!$A$7:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>З2!$A$7:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Мальвина</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Буратино</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Пьеро</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Лиса Алиса </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>З2!$C$7:$C$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>З2!$C$7:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions/>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-495A-4032-B25C-0D4B7D5CFD7E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>З2!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Компьютер</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-BD43-4955-A35D-AAAE00B5A502}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>З2!$A$7:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>З2!$A$7:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Мальвина</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Буратино</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Пьеро</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Лиса Алиса </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>З2!$D$7:$D$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>З2!$D$7:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions/>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-495A-4032-B25C-0D4B7D5CFD7E}"/>
+              <c16:uniqueId val="{00000024-56A3-46E6-BB97-050F760C897A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1770,172 +1427,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredPieSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>З2!$E$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Всего</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:dPt>
-                  <c:idx val="0"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000019-BD43-4955-A35D-AAAE00B5A502}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="1"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{0000001B-BD43-4955-A35D-AAAE00B5A502}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="2"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{0000001D-BD43-4955-A35D-AAAE00B5A502}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="3"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:extLst>
-                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{0000001F-BD43-4955-A35D-AAAE00B5A502}"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dPt>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>З2!$A$7:$A$11</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>З2!$A$7:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Мальвина</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Буратино</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Пьеро</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Лиса Алиса </c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>З2!$E$7:$E$11</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>З2!$E$7:$E$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>15</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                    <c15:categoryFilterExceptions/>
-                  </c:ext>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-495A-4032-B25C-0D4B7D5CFD7E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredPieSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -1959,7 +1451,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4912,7 +4404,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5868,8 +5360,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6867,7 +6359,7 @@
   </sheetPr>
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
